--- a/assets/info/plantilla-temal.xlsx
+++ b/assets/info/plantilla-temal.xlsx
@@ -63,7 +63,7 @@
     <t>REPORTES LEYES</t>
   </si>
   <si>
-    <t>Universidad:</t>
+    <t>Tema:</t>
   </si>
 </sst>
 </file>
